--- a/Pruebas apertura horizontal.xlsx
+++ b/Pruebas apertura horizontal.xlsx
@@ -1,12 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evesan/Documents/ESIME9/Proyectos/Tesina/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,24 +44,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +82,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -62,52 +91,1244 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amplitud (º)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="737763040"/>
+        <c:axId val="737102144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="737763040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737102144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737102144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737763040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>427567</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.86"/>
-    <col customWidth="1" min="3" max="3" width="17.71"/>
-    <col customWidth="1" min="4" max="4" width="21.43"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -121,145 +1342,146 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2">
         <v>72.5</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D10" si="1">B2-C2</f>
+        <f t="shared" ref="D2:D10" si="0">B2-C2</f>
         <v>37.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C7" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B9" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C9" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B10" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pruebas apertura horizontal.xlsx
+++ b/Pruebas apertura horizontal.xlsx
@@ -287,11 +287,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="737763040"/>
-        <c:axId val="737102144"/>
+        <c:axId val="896678768"/>
+        <c:axId val="896681520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="737763040"/>
+        <c:axId val="896678768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737102144"/>
+        <c:crossAx val="896681520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -356,7 +356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="737102144"/>
+        <c:axId val="896681520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -412,7 +412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="737763040"/>
+        <c:crossAx val="896678768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1480,6 +1480,12 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
     </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <f>MAX(D2:D10)</f>
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
